--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/20/seed2/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.873399999999992</v>
+        <v>-7.001199999999995</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.914799999999998</v>
+        <v>-7.920899999999996</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.740800000000005</v>
+        <v>-8.789900000000003</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.700699999999998</v>
+        <v>-8.710999999999997</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.283499999999999</v>
+        <v>-7.292199999999997</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.439300000000001</v>
+        <v>-8.355599999999997</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.545400000000008</v>
+        <v>-8.613999999999999</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.057199999999998</v>
+        <v>-7.173499999999998</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.420999999999994</v>
+        <v>-8.370999999999993</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.450699999999997</v>
+        <v>-6.493899999999996</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.601500000000001</v>
+        <v>-8.3721</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1440,7 +1440,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.431199999999995</v>
+        <v>-8.203199999999997</v>
       </c>
       <c r="E59" t="n">
         <v>16.47</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.973299999999998</v>
+        <v>-7.942399999999996</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.163599999999998</v>
+        <v>-7.139899999999998</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.194999999999999</v>
+        <v>-6.144499999999999</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.871499999999999</v>
+        <v>-8.9909</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.331799999999998</v>
+        <v>-6.467999999999997</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.782</v>
+        <v>-6.778699999999997</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.360300000000001</v>
+        <v>-8.231200000000003</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
